--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,16 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theus\Downloads\PROJETO CDADOS\22-1a-cd-p1-grupo_matheussr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD35E7B-5BD3-4427-B534-2681905F6D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -266,7 +284,7 @@
     <t>Nubank (NUBR33) supera bancões e tem o cartão de crédito preferido dos brasileiros</t>
   </si>
   <si>
-    <t xml:space="preserve">Nubank quer levantar mais de US$ 3 bilhões em IPO e chegar à Bolsa valendo dois Itaú, diz site </t>
+    <t>Nubank quer levantar mais de US$ 3 bilhões em IPO e chegar à Bolsa valendo dois Itaú, diz site </t>
   </si>
   <si>
     <t>The Money Office: Você sabia que Bill Gates foi garoto-propaganda do Unibanco? O Itaú talvez tenha se esquecido</t>
@@ -494,7 +512,7 @@
     <t>A Itaúsa voltará a distribuir 90% do seu lucro em dividendos?</t>
   </si>
   <si>
-    <t xml:space="preserve">Nubank: É preciso ter um olhar crítico sobre lucro antes de IPO, diz analista; veja entrevista </t>
+    <t>Nubank: É preciso ter um olhar crítico sobre lucro antes de IPO, diz analista; veja entrevista </t>
   </si>
   <si>
     <t>Nubank (NUBR33): 4T21 surpreende uns e deixa a desejar para outros; ações derretem</t>
@@ -1034,7 +1052,7 @@
     <t>Veja as principais manchetes desta quinta-feira (26):</t>
   </si>
   <si>
-    <t xml:space="preserve"> Recentemente a fintech Nubank, que conta com 10 milhões de clientes, lançou uma nova modalidade de investimento: O Recibo de Depósito Bancário (RDB), que tem garantia do Fundo Garantidor de Crédito (FGC), diferentemente da NuConta.</t>
+    <t> Recentemente a fintech Nubank, que conta com 10 milhões de clientes, lançou uma nova modalidade de investimento: O Recibo de Depósito Bancário (RDB), que tem garantia do Fundo Garantidor de Crédito (FGC), diferentemente da NuConta.</t>
   </si>
   <si>
     <t>A VTEX, provedora de plataforma de comércio digital para empresas e varejistas, anunciou nesta segunda-feira uma oferta pública inicial de ações (IPO, na sigla em inglês), na qual está buscando uma avaliação de até 3,2 bilhões de dólares.</t>
@@ -1046,7 +1064,7 @@
     <t>Recém-chegado ao Brasil, o colombiano David Vélez enfrentou um verdadeiro calvário para abrir uma simples conta corrente num banco. Perplexo com a experiência, o empreendedor passou a se perguntar como os bancos brasileiros, que cobram algumas das maiores taxas de juros e tarifas do mundo, prestavam aquele nível sofrível de serviços aos clientes.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Empiricus está abrindo uma nova turma do seu MBA em Análise de Ações e Finanças, a formação mais completa de novos profissionais do mercado financeiro do Brasil. </t>
+    <t>A Empiricus está abrindo uma nova turma do seu MBA em Análise de Ações e Finanças, a formação mais completa de novos profissionais do mercado financeiro do Brasil. </t>
   </si>
   <si>
     <t>A Nubank (NU; NUBR33) anunciou a seleção de mais duas startups fundadas por pessoas negras para serem aceleradas pelo fundo Semente Preta, o fundo de investimento semente que destina até R$ 1 milhão para as startups brasileiras que são fundadas e lideradas por empreendedores e empreendedoras negras.</t>
@@ -1094,7 +1112,7 @@
     <t>Os lucros dos grandes bancos brasileiros devem superar ou chegar próximo, em 2021, dos patamares de 2019, ano anterior à pandemia.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quando pensamos em investidor-anjo, a ideia que vem à cabeça é a de empresários muito endinheirados que já construíram negócios de sucesso por conta própria e agora estão buscando algo em que colocar dinheiro. E é bem verdade que existem vários investidores no ramo das startups que confirmam esse estereótipo. Mas não apenas os magnatas do Vale do Silício ou os milionários podem investir em empresas com alto potencial. </t>
+    <t>Quando pensamos em investidor-anjo, a ideia que vem à cabeça é a de empresários muito endinheirados que já construíram negócios de sucesso por conta própria e agora estão buscando algo em que colocar dinheiro. E é bem verdade que existem vários investidores no ramo das startups que confirmam esse estereótipo. Mas não apenas os magnatas do Vale do Silício ou os milionários podem investir em empresas com alto potencial. </t>
   </si>
   <si>
     <t>O Nubank (NU) fez a sua oferta pública inicial (IPO, na sigla em inglês) na bolsa de Nova York (NYSE) nesta quinta-feira (9).</t>
@@ -1103,7 +1121,7 @@
     <t>Um levantamento realizado pelo UBS BB revelou que o cartão de crédito do Nubank (NU) se destaca em preferência entre os consumidores brasileiros, superando o dos bancos tradicionais.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Nubank pretende chegar à Nasdaq valendo de US$ 75 bilhões até US$ 100 bilhões e levantar mais de US$ 3 bilhões com o seu IPO (Oferta Pública de Ações, em português), informou o site Pipeline, do Valor Econômico. </t>
+    <t>O Nubank pretende chegar à Nasdaq valendo de US$ 75 bilhões até US$ 100 bilhões e levantar mais de US$ 3 bilhões com o seu IPO (Oferta Pública de Ações, em português), informou o site Pipeline, do Valor Econômico. </t>
   </si>
   <si>
     <t>O iti, conta digital gratuita do Itaú Unibanco (ITUB4), foi lançado pelo gigante do mercado bancário brasileiro apenas em 2019 e, apenas em agosto de 2021, a sua versão com rendimento automático.</t>
@@ -1136,7 +1154,7 @@
     <t>O BTG Pactual (BPAC11) iniciou a cobertura das ações da Méliuz (CASH3), que fez sua estreia na B3 (B3SA3) no início de novembro, com recomendação de compra e preço-alvo para os próximos 12 meses de R$ 18. Além de ser a primeira plataforma de cashback no Brasil, a companhia conta com uma forte cultura e um time de administração com olhar apurado para o empreendedorismo, o que a coloca em uma boa posição para liderar a indústria de marketing de afiliados.</t>
   </si>
   <si>
-    <t xml:space="preserve">Até que ponto o Brasil é um país liberal? Para Larissa Bomfim, diretora do Fórum Liberdade e Democracia, promovido pelo Instituto de Formação de Líderes de São Paulo (IFL-SP), os brasileiros têm uma cultura liberal, apesar da forte presença do estado. </t>
+    <t>Até que ponto o Brasil é um país liberal? Para Larissa Bomfim, diretora do Fórum Liberdade e Democracia, promovido pelo Instituto de Formação de Líderes de São Paulo (IFL-SP), os brasileiros têm uma cultura liberal, apesar da forte presença do estado. </t>
   </si>
   <si>
     <t>Por Investing.com</t>
@@ -1205,7 +1223,7 @@
     <t>O governo deverá publicar novo arcabouço regulatório para fintechs após reunião extraordinária do Conselho Monetário Nacional (CMN) nesta quinta-feira, afirmaram à Reuters três fontes da equipe econômica.</t>
   </si>
   <si>
-    <t xml:space="preserve">Por Investing.com </t>
+    <t>Por Investing.com </t>
   </si>
   <si>
     <t>Com a turbulência nos mercados globais, os maiores bancos da América Latina voltaram às graças de analistas depois da queda de suas ações.</t>
@@ -1280,7 +1298,7 @@
     <t>O banco Inter (BIDI11) aprovou em conselho o protocolo e justificação da incorporação das ações da empresa pela Inter Holding Financeira, cujo capital social total é detido pela Inter Platform, disse a companhia nesta quarta-feira (3).</t>
   </si>
   <si>
-    <t xml:space="preserve">Uma nova regra do Banco Central, que eleva a exigência de capital para grandes fintechs, pode diminuir a diferença entre essas novas entreantes e os bancões, aponta a Ágora Investimentos em relatório enviado a clientes. </t>
+    <t>Uma nova regra do Banco Central, que eleva a exigência de capital para grandes fintechs, pode diminuir a diferença entre essas novas entreantes e os bancões, aponta a Ágora Investimentos em relatório enviado a clientes. </t>
   </si>
   <si>
     <t>O Nubank realizou uma simulação comparando os rendimentos da NuConta e da conta poupança e concluiu que os ganhos com o primeiro serviço são 24,7% maiores do que com o segundo, descontados o imposto de renda e o IOF (Imposto sobre Operações Financeiras).</t>
@@ -1364,7 +1382,7 @@
     <t>O WhatsApp relançou na terça-feira seus serviços de transferência de dinheiro entre indivíduos no Brasil, depois de ter sido bloqueado pelo Banco Central há quase um ano, disse o presidente do Facebook (FB), Mark Zuckerberg, em vídeo.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Nubank, fintech brasileira que ganhou fama oferecendo cartões de crédito sem tarifa ou anuidade, estreou na bolsa de Nova York há duas semanas, no dia 9, sob o ticker NU. Trata-se de um dos IPOs (oferta pública inicial de ações) mais aguardados pelos investidores este ano. </t>
+    <t>O Nubank, fintech brasileira que ganhou fama oferecendo cartões de crédito sem tarifa ou anuidade, estreou na bolsa de Nova York há duas semanas, no dia 9, sob o ticker NU. Trata-se de um dos IPOs (oferta pública inicial de ações) mais aguardados pelos investidores este ano. </t>
   </si>
   <si>
     <t>Veja as principais manchetes desta quarta-feira (27):</t>
@@ -1415,7 +1433,7 @@
     <t>O Banco Inter (BIDI11) ganhou novo fôlego com a proposta de reestruturação e o acordo com a Stone (STNE). A companhia não pretende ficar parada enquanto vê a concorrência ganhar cada vez mais espaço, como a compra de 40% do C6 Bank pelo JPMorgan ou a entrada do megainvestidor Warren Buffet no Nubank.</t>
   </si>
   <si>
-    <t xml:space="preserve">De tempos em tempos, a especulação em torno de uma nova Bolsa brasileira, concorrente da B3 (B3SA3), é ventilada no mercado. E, como consequência, após burburinhos, logo as ações da empresa caem. Isso aconteceu em junho e foi um dos fatores que levaram os papéis da dona da Bolsa a derreterem 40% só neste ano. </t>
+    <t>De tempos em tempos, a especulação em torno de uma nova Bolsa brasileira, concorrente da B3 (B3SA3), é ventilada no mercado. E, como consequência, após burburinhos, logo as ações da empresa caem. Isso aconteceu em junho e foi um dos fatores que levaram os papéis da dona da Bolsa a derreterem 40% só neste ano. </t>
   </si>
   <si>
     <t>O Nubank está cada vez mais perto de superar o Itaú Unibanco (ITUB4), em volume de cartões de crédito emitidos aos clientes. Segundo o UBS, o bancão das famílias Setúbal, Moreira Salles e Villela detém cerca de 35% desse mercado, com cerca de 33 milhões de plásticos emitidos.</t>
@@ -1478,7 +1496,7 @@
     <t>O Ibovespa (IBOV) fechou novamente com acréscimo discreto nesta quinta-feira, que teve como destaque o salto de 15% da Embraer (EMBR) após anúncio de que negocia a fusão de sua unidade de transporte aéreo urbano com uma empresa dos Estados Unidos.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nos últimos anos, muitas fintechs brasileiras e não-brasileiras estão realizando IPOs nas bolsas de valores norte-americanas. </t>
+    <t>Nos últimos anos, muitas fintechs brasileiras e não-brasileiras estão realizando IPOs nas bolsas de valores norte-americanas. </t>
   </si>
   <si>
     <t>O Nubank anunciou nesta quarta-feira (2) que concluiu todos os trâmites jurídicos para a aquisição da corretora Easynvest e iniciou a integração com a ativo.</t>
@@ -1502,7 +1520,7 @@
     <t>É uma pontuação que vai de 0 a 1.000. Quanto mais pontos uma pessoa possui, mais boa pagadora ela é e mais um banco ou uma fintech pode confiar nela para fornecer um empréstimo ou autorizar a abertura de uma conta, por exemplo. Ninguém sabe exatamente como esta pontuação é feita e qual o peso de cada item nesta pontuação. Por exemplo, uma pessoa pegou um empréstimo de R$ 1 mil e pagou em dia todas as parcelas.</t>
   </si>
   <si>
-    <t xml:space="preserve">O IPO do Nubank (NUBR33) aconteceu no início de dezembro e, desde então, a fintech está entre os assuntos mais quentes do mercado financeiro. </t>
+    <t>O IPO do Nubank (NUBR33) aconteceu no início de dezembro e, desde então, a fintech está entre os assuntos mais quentes do mercado financeiro. </t>
   </si>
   <si>
     <t>O caos recente nos mercados deixou um rastro de perdas para a indústria brasileira de fundos. Para o Giant Zarathustra Master, a turbulência é um ambiente propício para ganhos.</t>
@@ -1532,7 +1550,7 @@
     <t>O BV, ex-Banco Votorantim, anunciou nesta quinta-feira um novo investimento de 80 milhões de reais na Weel, plataforma de antecipação de recebíveis, numa aposta para elevar a participação no nicho de empréstimos para empresas médias.</t>
   </si>
   <si>
-    <t xml:space="preserve">Este texto é sobre Nubank, mas poderia ser sobre Banco Inter. Poderia também ser sobre qualquer outra “queridinha”. Nada contra elas em particular. Ao contrário, são empresas espetaculares e merecem todo seu sucesso. A questão é justamente esta: elas são tão boas que passam a ser percebidas como uma coisa extraordinária, quase meio metafísica, sem qualquer tipo de problema, feitas à perfeição, tocadas por forças sobrenaturais. </t>
+    <t>Este texto é sobre Nubank, mas poderia ser sobre Banco Inter. Poderia também ser sobre qualquer outra “queridinha”. Nada contra elas em particular. Ao contrário, são empresas espetaculares e merecem todo seu sucesso. A questão é justamente esta: elas são tão boas que passam a ser percebidas como uma coisa extraordinária, quase meio metafísica, sem qualquer tipo de problema, feitas à perfeição, tocadas por forças sobrenaturais. </t>
   </si>
   <si>
     <t>O Nubank anunciou nesta quinta-feira o lançamento de seu cartão de crédito na Colômbia, afirmando que possui no país uma lista de espera com 250 mil pessoas interessadas, das quais vai atender 3 mil em uma primeira fase.</t>
@@ -1604,7 +1622,7 @@
     <t>Após mais um trimestre no prejuízo, o Nubank (NUBR33) reafirma que “nunca terá a rentabilidade de um bancão”, avalia o analista da Benndorf, Tony Rios.</t>
   </si>
   <si>
-    <t xml:space="preserve">Prevendo um cenário econômico mais difícil, com possível elevação da inadimplência, o BTG Pactual rebaixou a recomendação do Nubank (NU) de neutra para a venda, com preço-alvo de US$ 8,50, potencial de queda de quase 9% em relação ao fechamento de quarta-feira (9). </t>
+    <t>Prevendo um cenário econômico mais difícil, com possível elevação da inadimplência, o BTG Pactual rebaixou a recomendação do Nubank (NU) de neutra para a venda, com preço-alvo de US$ 8,50, potencial de queda de quase 9% em relação ao fechamento de quarta-feira (9). </t>
   </si>
   <si>
     <t>O Conselho Administrativo de Defesa Econômica (Cade) pediu à Cielo (CIEL3) e ao Facebook (FB) esclarecimentos sobre um sistema de pagamentos via Whatsapp lançado no país em junho, mas depois bloqueado pelo Banco Central, incluindo o detalhamento das remunerações previstas para cada uma das partes.</t>
@@ -1691,7 +1709,7 @@
     <t>﻿</t>
   </si>
   <si>
-    <t xml:space="preserve">A alta recente das ações da Oi (OIBR3) não conseguiu compensar o desânimo dos investidores com a empresa este ano. A ação da telecom acumula queda de 35% em 2021, a maior parte dela acentuada após 19 de julho, quando a companhia divulgou o seu plano de negócios trienal. </t>
+    <t>A alta recente das ações da Oi (OIBR3) não conseguiu compensar o desânimo dos investidores com a empresa este ano. A ação da telecom acumula queda de 35% em 2021, a maior parte dela acentuada após 19 de julho, quando a companhia divulgou o seu plano de negócios trienal. </t>
   </si>
   <si>
     <t>Os bancos digitais estão entrando com tudo no mercado financeiro e arrastando milhões de clientes que não querem mais pagar tarifas de manutenção ou ted e nem fazem questão de que a instituição tenha uma agência física. Mas o que acontece se o Banco Inter, Nubank ou Mercado Pago quebrarem?</t>
@@ -1790,7 +1808,7 @@
     <t>Veja as principais manchetes desta quinta-feira (24):</t>
   </si>
   <si>
-    <t xml:space="preserve">Você piscou e a Magazine Luiza já comprou 25 startups. Aliás, neste exato momento ela pode estar comprando mais uma. E não seria nenhuma novidade, afinal, a varejista já mostrou que está de olho no futuro. </t>
+    <t>Você piscou e a Magazine Luiza já comprou 25 startups. Aliás, neste exato momento ela pode estar comprando mais uma. E não seria nenhuma novidade, afinal, a varejista já mostrou que está de olho no futuro. </t>
   </si>
   <si>
     <t>Essa é uma frase que eu sempre digo ao falar sobre planejamento financeiro. Afinal, a organização e a disciplina são mais importantes para um bom controle das finanças do que o quanto se ganha.</t>
@@ -3302,7 +3320,7 @@
     <t xml:space="preserve">O Nubank (NU), que estreou na Bolsa de Nova York enchendo os olhos de investidores, com disparada de 15%, perdeu o fôlego e não conseguiu sustentar a alta. </t>
   </si>
   <si>
-    <t xml:space="preserve">As ações do bancos oferecem uma bela oportunidade para lucrar em 2022, afirma o Bank of America em relatório enviado ao mercado. </t>
+    <t>As ações do bancos oferecem uma bela oportunidade para lucrar em 2022, afirma o Bank of America em relatório enviado ao mercado. </t>
   </si>
   <si>
     <t>O Nubank, maior banco digital independente do mundo, anuncia hoje que planeja contratar duas mil pessoas autodeclaradas pretas ou pardas até o fim de 2025.</t>
@@ -3428,7 +3446,7 @@
     <t>Veja as principais manchetes desta terça-feira (22):</t>
   </si>
   <si>
-    <t xml:space="preserve">Por Felipe Miranda, Chief Investment Officer (CIO) da Empiricus Research </t>
+    <t>Por Felipe Miranda, Chief Investment Officer (CIO) da Empiricus Research </t>
   </si>
   <si>
     <t>O serviço de mensagens WhatsApp, do Facebook (FB), lançou nesta segunda-feira um sistema no Brasil que permitirá que usuários enviem dinheiro a indivíduos ou empresas no país dentro de uma conversa, anexando o pagamento como se fosse foto ou vídeo.</t>
@@ -3437,7 +3455,7 @@
     <t>O Nubank realizou recentemente a primeira oferta pública de Letra Financeira Subordinada (LFSN) no Brasil no valor de R$ 75 milhões. A fintech conseguiu captar ainda mais R$ 300 milhões por meio de uma emissão de Letra Financeira Sênior (LFS).</t>
   </si>
   <si>
-    <t xml:space="preserve">A Bolsa de Valores só vê a ponta do iceberg. Voando abaixo do radar está o crescimento das empresas tech de capital fechado. Os dias de grande valorização nas ações de tecnologia, especialmente ao entrar no IPO, já são coisa do passado. A maioria das ações listadas em bolsa sofre com um benefício do Venture Capital: capital. </t>
+    <t>A Bolsa de Valores só vê a ponta do iceberg. Voando abaixo do radar está o crescimento das empresas tech de capital fechado. Os dias de grande valorização nas ações de tecnologia, especialmente ao entrar no IPO, já são coisa do passado. A maioria das ações listadas em bolsa sofre com um benefício do Venture Capital: capital. </t>
   </si>
   <si>
     <t>O Itaú Unibanco (ITUB4) anunciou nesta sexta-feira a criação de uma unidade focada em pagamentos, em meio à formação de um comitê executivo que tem por objetivo tornar o grupo mais ágil quando passar a ser liderado por um novo presidente.</t>
@@ -3551,7 +3569,7 @@
     <t>O banco de investimentos UBS BB está mais otimista do que o mercado e avalia que já chegou a hora de o investidor voltar a comprar os papéis do Banco Inter (BIDI11) na Bolsa, revela um relatório enviado a clientes e obtido pelo Money Times.</t>
   </si>
   <si>
-    <t xml:space="preserve">A Méliuz (CASH3), sem dúvida, se tornou uma das grandes estrelas dessa nova safra de empresas que chegou com a onda de IPOs (Oferta Pública de Ações) por qual passa a Bolsa brasileira. </t>
+    <t>A Méliuz (CASH3), sem dúvida, se tornou uma das grandes estrelas dessa nova safra de empresas que chegou com a onda de IPOs (Oferta Pública de Ações) por qual passa a Bolsa brasileira. </t>
   </si>
   <si>
     <t>Depois de estrear na bolsa de Nova York (NYSE), o Nubank (NU; NUBR33)  faz a sua estreia na B3 em 10 de dezembro de 2021, no maior IPO para investidores de varejo do Brasil até hoje, terminando o dia com uma alta de 14,54%, a R$ 11,50.</t>
@@ -3563,7 +3581,7 @@
     <t>Os fundadores do Nubank disseram nesta quinta-feira em uma carta que a instituição financiará a formação de 1.250 programadores negros, em decisão tomada após a fintech sofrer críticas a comentários da cofundadora Cristina Junqueira.</t>
   </si>
   <si>
-    <t xml:space="preserve">Desde o começo do ano, qualquer burburinho sobre a oferta pública inicial do Nubank toma conta do noticiário econômico. Hoje não foi diferente: o ‘roxinho’ protocolou perante a CVM (Comissão de Valores Mobiliários), a B3 e a SEC (Securities and Exchange Commission) o seu pedido de registro de oferta de ações. Para o investidor, resta um questionamento: quando o IPO do Nubank vai finalmente sair do papel? </t>
+    <t>Desde o começo do ano, qualquer burburinho sobre a oferta pública inicial do Nubank toma conta do noticiário econômico. Hoje não foi diferente: o ‘roxinho’ protocolou perante a CVM (Comissão de Valores Mobiliários), a B3 e a SEC (Securities and Exchange Commission) o seu pedido de registro de oferta de ações. Para o investidor, resta um questionamento: quando o IPO do Nubank vai finalmente sair do papel? </t>
   </si>
   <si>
     <t>O livro “Na Raça“, que revela os bastidores da trajetória da XP Investimentos (XP), acaba de ser lançado mas já é um dos registros históricos mais bem feitos sobre o desenvolvimento do mercado financeiro brasileiro.</t>
@@ -3689,7 +3707,7 @@
     <t>O Nubank, banco digital brasileiro que tem entre os seus acionistas a Berkshire Hathaway, de Warren Buffett, pediu propostas de bancos de investimento para que eles coordenem sua oferta pública inicial de ações (IPO) nos Estados Unidos, disseram nesta segunda-feira pessoas a par do assunto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Na Califórnia, a proximidade entre Hollywood e o Vale do Silício é maior do que você imagina. E eu não estou falando da quilometragem para ir do polo do entretenimento ao polo da tecnologia. Mas sim do fato de que muitas celebridades são investidoras-anjo de startups. E acredite se quiser: algumas delas fizeram mais dinheiro investindo nessas empresas inovadoras do que atuando e performando ao redor do mundo. </t>
+    <t>Na Califórnia, a proximidade entre Hollywood e o Vale do Silício é maior do que você imagina. E eu não estou falando da quilometragem para ir do polo do entretenimento ao polo da tecnologia. Mas sim do fato de que muitas celebridades são investidoras-anjo de startups. E acredite se quiser: algumas delas fizeram mais dinheiro investindo nessas empresas inovadoras do que atuando e performando ao redor do mundo. </t>
   </si>
   <si>
     <t>O Goldman Sachs decidiu emprestar US$ 125 milhões ao Mercado Crédito, no que será o terceiro empréstimo do banco a uma fintech latino-americana este ano e o maior de todos os tempos no México.</t>
@@ -3770,7 +3788,7 @@
     <t>Com a explosão das vendas globais de alimentos de origem vegetal, uma startup chilena atraiu o interesse do fundador da Amazon.com, Jeff Bezos, e agora mira um valor recorde.</t>
   </si>
   <si>
-    <t xml:space="preserve">O Bradesco BBI derrubou o preço-alvo do Inter (BIDI11) de R$ 51 para R$ 34. Mesmo assim, o novo preço-alvo significa uma elevação expressiva de 83% ante o fechamento da última sexta-feira (4). A recomendação de compra foi reafirmada. </t>
+    <t>O Bradesco BBI derrubou o preço-alvo do Inter (BIDI11) de R$ 51 para R$ 34. Mesmo assim, o novo preço-alvo significa uma elevação expressiva de 83% ante o fechamento da última sexta-feira (4). A recomendação de compra foi reafirmada. </t>
   </si>
   <si>
     <t>Veja as principais manchetes desta terça-feira (10):</t>
@@ -3842,7 +3860,7 @@
     <t>“No contexto atual, por exemplo, estamos aprendendo que fluxos de caixa muito concentrados na perpetuidade podem ser um problema.”</t>
   </si>
   <si>
-    <t xml:space="preserve">As ações da Méliuz (CASH3) sobem 3,6% na sessão desta quinta-feira (9), recuperando parte das perdas da última quarta-feira (8), quando desabou 11%, em dia de queda generalizada dos mercados. </t>
+    <t>As ações da Méliuz (CASH3) sobem 3,6% na sessão desta quinta-feira (9), recuperando parte das perdas da última quarta-feira (8), quando desabou 11%, em dia de queda generalizada dos mercados. </t>
   </si>
   <si>
     <t>O Nubank levantou 400 milhões de dólares em sua sétima rodada de financiamento, numa captação que avaliou a fintech entre as cinco maiores instituições financeiras da America Latina, disse seu presidente e fundador David Velez numa entrevista.</t>
@@ -4454,8 +4472,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4518,11 +4536,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4564,7 +4590,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4596,9 +4622,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4630,6 +4674,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4805,14 +4867,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4832,7 +4896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4848,8 +4912,11 @@
       <c r="E2">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4865,8 +4932,11 @@
       <c r="E3">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4882,8 +4952,11 @@
       <c r="E4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4899,8 +4972,11 @@
       <c r="E5">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4916,8 +4992,11 @@
       <c r="E6">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4933,8 +5012,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -4950,8 +5032,11 @@
       <c r="E8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4967,8 +5052,11 @@
       <c r="E9">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4984,8 +5072,11 @@
       <c r="E10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -5001,8 +5092,11 @@
       <c r="E11">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -5018,8 +5112,11 @@
       <c r="E12">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5035,8 +5132,11 @@
       <c r="E13">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -5052,8 +5152,11 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -5069,8 +5172,11 @@
       <c r="E15">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -5086,8 +5192,11 @@
       <c r="E16">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -5103,8 +5212,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5120,8 +5232,11 @@
       <c r="E18">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -5137,8 +5252,11 @@
       <c r="E19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -5154,8 +5272,11 @@
       <c r="E20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -5171,8 +5292,11 @@
       <c r="E21">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -5188,8 +5312,11 @@
       <c r="E22">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -5205,8 +5332,11 @@
       <c r="E23">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -5222,8 +5352,11 @@
       <c r="E24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -5236,8 +5369,11 @@
       <c r="E25">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5250,8 +5386,11 @@
       <c r="E26">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -5267,8 +5406,11 @@
       <c r="E27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5284,8 +5426,11 @@
       <c r="E28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -5301,8 +5446,11 @@
       <c r="E29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -5318,8 +5466,11 @@
       <c r="E30">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -5335,8 +5486,11 @@
       <c r="E31">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -5352,8 +5506,11 @@
       <c r="E32">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -5369,8 +5526,11 @@
       <c r="E33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -5386,8 +5546,11 @@
       <c r="E34">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -5403,8 +5566,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -5420,8 +5586,11 @@
       <c r="E36">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -5437,8 +5606,11 @@
       <c r="E37">
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -5454,8 +5626,11 @@
       <c r="E38">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -5471,8 +5646,11 @@
       <c r="E39">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -5488,8 +5666,11 @@
       <c r="E40">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -5505,8 +5686,11 @@
       <c r="E41">
         <v>21</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -5522,8 +5706,11 @@
       <c r="E42">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -5536,8 +5723,11 @@
       <c r="E43">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -5553,8 +5743,11 @@
       <c r="E44">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -5570,8 +5763,11 @@
       <c r="E45">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -5587,8 +5783,11 @@
       <c r="E46">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -5604,8 +5803,11 @@
       <c r="E47">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -5618,8 +5820,11 @@
       <c r="E48">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -5635,8 +5840,11 @@
       <c r="E49">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5649,8 +5857,11 @@
       <c r="E50">
         <v>19</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -5666,8 +5877,11 @@
       <c r="E51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -5683,8 +5897,11 @@
       <c r="E52">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -5700,8 +5917,11 @@
       <c r="E53">
         <v>34</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -5717,8 +5937,11 @@
       <c r="E54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -5734,8 +5957,11 @@
       <c r="E55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -5751,8 +5977,11 @@
       <c r="E56">
         <v>41</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -5768,8 +5997,11 @@
       <c r="E57">
         <v>25</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -5785,8 +6017,11 @@
       <c r="E58">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>30</v>
       </c>
@@ -5802,8 +6037,11 @@
       <c r="E59">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -5816,8 +6054,11 @@
       <c r="E60">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -5833,8 +6074,11 @@
       <c r="E61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>14</v>
       </c>
@@ -5847,8 +6091,11 @@
       <c r="E62">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -5864,8 +6111,11 @@
       <c r="E63">
         <v>28</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -5881,8 +6131,11 @@
       <c r="E64">
         <v>37</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -5898,8 +6151,11 @@
       <c r="E65">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -5915,8 +6171,11 @@
       <c r="E66">
         <v>47</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -5932,8 +6191,11 @@
       <c r="E67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -5949,8 +6211,11 @@
       <c r="E68">
         <v>39</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -5966,8 +6231,11 @@
       <c r="E69">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>25</v>
       </c>
@@ -5983,8 +6251,11 @@
       <c r="E70">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -6000,8 +6271,11 @@
       <c r="E71">
         <v>43</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>15</v>
       </c>
@@ -6017,8 +6291,11 @@
       <c r="E72">
         <v>38</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -6034,8 +6311,11 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -6051,8 +6331,11 @@
       <c r="E74">
         <v>37</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -6068,8 +6351,11 @@
       <c r="E75">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -6085,8 +6371,11 @@
       <c r="E76">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -6102,8 +6391,11 @@
       <c r="E77">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>32</v>
       </c>
@@ -6119,8 +6411,11 @@
       <c r="E78">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -6136,8 +6431,11 @@
       <c r="E79">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -6153,8 +6451,11 @@
       <c r="E80">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -6170,8 +6471,11 @@
       <c r="E81">
         <v>23</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -6187,8 +6491,11 @@
       <c r="E82">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -6204,8 +6511,11 @@
       <c r="E83">
         <v>35</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -6221,8 +6531,11 @@
       <c r="E84">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -6238,8 +6551,11 @@
       <c r="E85">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -6255,8 +6571,11 @@
       <c r="E86">
         <v>46</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -6272,8 +6591,11 @@
       <c r="E87">
         <v>18</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>33</v>
       </c>
@@ -6289,8 +6611,11 @@
       <c r="E88">
         <v>30</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -6306,8 +6631,11 @@
       <c r="E89">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -6323,8 +6651,11 @@
       <c r="E90">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -6340,8 +6671,11 @@
       <c r="E91">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -6354,8 +6688,11 @@
       <c r="E92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -6371,8 +6708,11 @@
       <c r="E93">
         <v>37</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>33</v>
       </c>
@@ -6388,8 +6728,11 @@
       <c r="E94">
         <v>29</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -6405,8 +6748,11 @@
       <c r="E95">
         <v>46</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -6422,8 +6768,11 @@
       <c r="E96">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -6439,8 +6788,11 @@
       <c r="E97">
         <v>15</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -6456,8 +6808,11 @@
       <c r="E98">
         <v>42</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>34</v>
       </c>
@@ -6473,8 +6828,11 @@
       <c r="E99">
         <v>46</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>35</v>
       </c>
@@ -6490,8 +6848,11 @@
       <c r="E100">
         <v>43</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>36</v>
       </c>
@@ -6507,8 +6868,11 @@
       <c r="E101">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -6524,8 +6888,11 @@
       <c r="E102">
         <v>38</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -6541,8 +6908,11 @@
       <c r="E103">
         <v>44</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -6558,8 +6928,11 @@
       <c r="E104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -6575,8 +6948,11 @@
       <c r="E105">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -6592,8 +6968,11 @@
       <c r="E106">
         <v>36</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -6609,8 +6988,11 @@
       <c r="E107">
         <v>45</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -6626,8 +7008,11 @@
       <c r="E108">
         <v>24</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -6643,8 +7028,11 @@
       <c r="E109">
         <v>25</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -6657,8 +7045,11 @@
       <c r="E110">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -6674,8 +7065,11 @@
       <c r="E111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -6691,8 +7085,11 @@
       <c r="E112">
         <v>45</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -6708,8 +7105,11 @@
       <c r="E113">
         <v>30</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -6725,8 +7125,11 @@
       <c r="E114">
         <v>45</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -6742,8 +7145,11 @@
       <c r="E115">
         <v>26</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -6756,8 +7162,11 @@
       <c r="E116">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -6773,8 +7182,11 @@
       <c r="E117">
         <v>31</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -6790,8 +7202,11 @@
       <c r="E118">
         <v>47</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -6807,8 +7222,11 @@
       <c r="E119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -6824,8 +7242,11 @@
       <c r="E120">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>8</v>
       </c>
@@ -6841,8 +7262,11 @@
       <c r="E121">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -6858,8 +7282,11 @@
       <c r="E122">
         <v>45</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -6875,8 +7302,11 @@
       <c r="E123">
         <v>28</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -6892,8 +7322,11 @@
       <c r="E124">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -6909,8 +7342,11 @@
       <c r="E125">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>38</v>
       </c>
@@ -6926,8 +7362,11 @@
       <c r="E126">
         <v>28</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -6943,8 +7382,11 @@
       <c r="E127">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -6960,8 +7402,11 @@
       <c r="E128">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -6977,8 +7422,11 @@
       <c r="E129">
         <v>19</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -6994,8 +7442,11 @@
       <c r="E130">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>39</v>
       </c>
@@ -7011,8 +7462,11 @@
       <c r="E131">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>40</v>
       </c>
@@ -7025,8 +7479,11 @@
       <c r="E132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -7042,8 +7499,11 @@
       <c r="E133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -7059,8 +7519,11 @@
       <c r="E134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>13</v>
       </c>
@@ -7073,8 +7536,11 @@
       <c r="E135">
         <v>49</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>41</v>
       </c>
@@ -7090,8 +7556,11 @@
       <c r="E136">
         <v>34</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -7107,8 +7576,11 @@
       <c r="E137">
         <v>29</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -7124,8 +7596,11 @@
       <c r="E138">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -7141,8 +7616,11 @@
       <c r="E139">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -7158,8 +7636,11 @@
       <c r="E140">
         <v>40</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -7175,8 +7656,11 @@
       <c r="E141">
         <v>41</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -7192,8 +7676,11 @@
       <c r="E142">
         <v>37</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -7209,8 +7696,11 @@
       <c r="E143">
         <v>47</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>42</v>
       </c>
@@ -7226,8 +7716,11 @@
       <c r="E144">
         <v>46</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -7243,8 +7736,11 @@
       <c r="E145">
         <v>42</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -7260,8 +7756,11 @@
       <c r="E146">
         <v>32</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -7277,8 +7776,11 @@
       <c r="E147">
         <v>27</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -7294,8 +7796,11 @@
       <c r="E148">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -7311,8 +7816,11 @@
       <c r="E149">
         <v>37</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -7328,8 +7836,11 @@
       <c r="E150">
         <v>27</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>29</v>
       </c>
@@ -7345,8 +7856,11 @@
       <c r="E151">
         <v>11</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -7362,8 +7876,11 @@
       <c r="E152">
         <v>42</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -7379,8 +7896,11 @@
       <c r="E153">
         <v>14</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>11</v>
       </c>
@@ -7396,8 +7916,11 @@
       <c r="E154">
         <v>7</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -7413,8 +7936,11 @@
       <c r="E155">
         <v>49</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>24</v>
       </c>
@@ -7427,8 +7953,11 @@
       <c r="E156">
         <v>48</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>37</v>
       </c>
@@ -7444,8 +7973,11 @@
       <c r="E157">
         <v>45</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -7461,8 +7993,11 @@
       <c r="E158">
         <v>42</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -7478,8 +8013,11 @@
       <c r="E159">
         <v>48</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -7495,8 +8033,11 @@
       <c r="E160">
         <v>10</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -7512,8 +8053,11 @@
       <c r="E161">
         <v>21</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>18</v>
       </c>
@@ -7529,8 +8073,11 @@
       <c r="E162">
         <v>25</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -7546,8 +8093,11 @@
       <c r="E163">
         <v>4</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>43</v>
       </c>
@@ -7563,8 +8113,11 @@
       <c r="E164">
         <v>39</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>18</v>
       </c>
@@ -7577,8 +8130,11 @@
       <c r="E165">
         <v>50</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -7594,8 +8150,11 @@
       <c r="E166">
         <v>45</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -7611,8 +8170,11 @@
       <c r="E167">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -7628,8 +8190,11 @@
       <c r="E168">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>39</v>
       </c>
@@ -7645,8 +8210,11 @@
       <c r="E169">
         <v>50</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>44</v>
       </c>
@@ -7662,8 +8230,11 @@
       <c r="E170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>18</v>
       </c>
@@ -7679,8 +8250,11 @@
       <c r="E171">
         <v>29</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -7696,8 +8270,11 @@
       <c r="E172">
         <v>30</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>33</v>
       </c>
@@ -7713,8 +8290,11 @@
       <c r="E173">
         <v>29</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -7730,8 +8310,11 @@
       <c r="E174">
         <v>35</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -7747,8 +8330,11 @@
       <c r="E175">
         <v>6</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -7764,8 +8350,11 @@
       <c r="E176">
         <v>45</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>15</v>
       </c>
@@ -7781,8 +8370,11 @@
       <c r="E177">
         <v>50</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>15</v>
       </c>
@@ -7798,8 +8390,11 @@
       <c r="E178">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -7815,8 +8410,11 @@
       <c r="E179">
         <v>48</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -7832,8 +8430,11 @@
       <c r="E180">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -7849,8 +8450,11 @@
       <c r="E181">
         <v>38</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -7866,8 +8470,11 @@
       <c r="E182">
         <v>30</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -7883,8 +8490,11 @@
       <c r="E183">
         <v>14</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -7900,8 +8510,11 @@
       <c r="E184">
         <v>14</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -7917,8 +8530,11 @@
       <c r="E185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>8</v>
       </c>
@@ -7934,8 +8550,11 @@
       <c r="E186">
         <v>38</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>18</v>
       </c>
@@ -7951,8 +8570,11 @@
       <c r="E187">
         <v>25</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>15</v>
       </c>
@@ -7968,8 +8590,11 @@
       <c r="E188">
         <v>9</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -7985,8 +8610,11 @@
       <c r="E189">
         <v>33</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -8002,8 +8630,11 @@
       <c r="E190">
         <v>40</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -8019,8 +8650,11 @@
       <c r="E191">
         <v>23</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -8036,8 +8670,11 @@
       <c r="E192">
         <v>32</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -8053,8 +8690,11 @@
       <c r="E193">
         <v>22</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>11</v>
       </c>
@@ -8070,8 +8710,11 @@
       <c r="E194">
         <v>26</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -8087,8 +8730,11 @@
       <c r="E195">
         <v>43</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>18</v>
       </c>
@@ -8104,8 +8750,11 @@
       <c r="E196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -8121,8 +8770,11 @@
       <c r="E197">
         <v>47</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -8138,8 +8790,11 @@
       <c r="E198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -8155,8 +8810,11 @@
       <c r="E199">
         <v>14</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -8172,8 +8830,11 @@
       <c r="E200">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -8189,8 +8850,11 @@
       <c r="E201">
         <v>35</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>18</v>
       </c>
@@ -8206,8 +8870,11 @@
       <c r="E202">
         <v>2</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -8223,8 +8890,11 @@
       <c r="E203">
         <v>34</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -8240,8 +8910,11 @@
       <c r="E204">
         <v>33</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>44</v>
       </c>
@@ -8257,8 +8930,11 @@
       <c r="E205">
         <v>40</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -8274,8 +8950,11 @@
       <c r="E206">
         <v>48</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -8291,8 +8970,11 @@
       <c r="E207">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -8305,8 +8987,11 @@
       <c r="E208">
         <v>19</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -8322,8 +9007,11 @@
       <c r="E209">
         <v>40</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>15</v>
       </c>
@@ -8339,8 +9027,11 @@
       <c r="E210">
         <v>44</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -8356,8 +9047,11 @@
       <c r="E211">
         <v>14</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -8373,8 +9067,11 @@
       <c r="E212">
         <v>14</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -8390,8 +9087,11 @@
       <c r="E213">
         <v>18</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -8407,8 +9107,11 @@
       <c r="E214">
         <v>42</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -8424,8 +9127,11 @@
       <c r="E215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -8441,8 +9147,11 @@
       <c r="E216">
         <v>4</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -8458,8 +9167,11 @@
       <c r="E217">
         <v>37</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>18</v>
       </c>
@@ -8475,8 +9187,11 @@
       <c r="E218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>46</v>
       </c>
@@ -8492,8 +9207,11 @@
       <c r="E219">
         <v>50</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -8509,8 +9227,11 @@
       <c r="E220">
         <v>39</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>8</v>
       </c>
@@ -8526,8 +9247,11 @@
       <c r="E221">
         <v>33</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -8543,8 +9267,11 @@
       <c r="E222">
         <v>40</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -8560,8 +9287,11 @@
       <c r="E223">
         <v>23</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -8577,8 +9307,11 @@
       <c r="E224">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>11</v>
       </c>
@@ -8594,8 +9327,11 @@
       <c r="E225">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -8611,8 +9347,11 @@
       <c r="E226">
         <v>41</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -8628,8 +9367,11 @@
       <c r="E227">
         <v>22</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>8</v>
       </c>
@@ -8645,8 +9387,11 @@
       <c r="E228">
         <v>22</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -8662,8 +9407,11 @@
       <c r="E229">
         <v>26</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="F229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>18</v>
       </c>
@@ -8679,8 +9427,11 @@
       <c r="E230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:5">
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -8696,8 +9447,11 @@
       <c r="E231">
         <v>36</v>
       </c>
-    </row>
-    <row r="232" spans="1:5">
+      <c r="F231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>18</v>
       </c>
@@ -8713,8 +9467,11 @@
       <c r="E232">
         <v>18</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -8730,8 +9487,11 @@
       <c r="E233">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -8747,8 +9507,11 @@
       <c r="E234">
         <v>44</v>
       </c>
-    </row>
-    <row r="235" spans="1:5">
+      <c r="F234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -8764,8 +9527,11 @@
       <c r="E235">
         <v>11</v>
       </c>
-    </row>
-    <row r="236" spans="1:5">
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -8781,8 +9547,11 @@
       <c r="E236">
         <v>47</v>
       </c>
-    </row>
-    <row r="237" spans="1:5">
+      <c r="F236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -8798,8 +9567,11 @@
       <c r="E237">
         <v>26</v>
       </c>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="F237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>19</v>
       </c>
@@ -8815,8 +9587,11 @@
       <c r="E238">
         <v>44</v>
       </c>
-    </row>
-    <row r="239" spans="1:5">
+      <c r="F238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -8832,8 +9607,11 @@
       <c r="E239">
         <v>46</v>
       </c>
-    </row>
-    <row r="240" spans="1:5">
+      <c r="F239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>29</v>
       </c>
@@ -8849,8 +9627,11 @@
       <c r="E240">
         <v>25</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -8866,8 +9647,11 @@
       <c r="E241">
         <v>36</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -8883,8 +9667,11 @@
       <c r="E242">
         <v>19</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -8900,8 +9687,11 @@
       <c r="E243">
         <v>18</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -8917,8 +9707,11 @@
       <c r="E244">
         <v>39</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
+      <c r="F244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>18</v>
       </c>
@@ -8934,8 +9727,11 @@
       <c r="E245">
         <v>11</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
+      <c r="F245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -8951,8 +9747,11 @@
       <c r="E246">
         <v>23</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
+      <c r="F246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>14</v>
       </c>
@@ -8968,8 +9767,11 @@
       <c r="E247">
         <v>44</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
+      <c r="F247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>47</v>
       </c>
@@ -8985,8 +9787,11 @@
       <c r="E248">
         <v>35</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>18</v>
       </c>
@@ -8999,8 +9804,11 @@
       <c r="E249">
         <v>50</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -9016,8 +9824,11 @@
       <c r="E250">
         <v>42</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -9033,8 +9844,11 @@
       <c r="E251">
         <v>21</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>48</v>
       </c>
@@ -9050,8 +9864,11 @@
       <c r="E252">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -9067,8 +9884,11 @@
       <c r="E253">
         <v>44</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -9084,8 +9904,11 @@
       <c r="E254">
         <v>9</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>11</v>
       </c>
@@ -9101,8 +9924,11 @@
       <c r="E255">
         <v>19</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>18</v>
       </c>
@@ -9118,8 +9944,11 @@
       <c r="E256">
         <v>38</v>
       </c>
-    </row>
-    <row r="257" spans="1:5">
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -9135,8 +9964,11 @@
       <c r="E257">
         <v>21</v>
       </c>
-    </row>
-    <row r="258" spans="1:5">
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -9152,8 +9984,11 @@
       <c r="E258">
         <v>27</v>
       </c>
-    </row>
-    <row r="259" spans="1:5">
+      <c r="F258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -9169,8 +10004,11 @@
       <c r="E259">
         <v>49</v>
       </c>
-    </row>
-    <row r="260" spans="1:5">
+      <c r="F259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>49</v>
       </c>
@@ -9186,8 +10024,11 @@
       <c r="E260">
         <v>50</v>
       </c>
-    </row>
-    <row r="261" spans="1:5">
+      <c r="F260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -9203,8 +10044,11 @@
       <c r="E261">
         <v>17</v>
       </c>
-    </row>
-    <row r="262" spans="1:5">
+      <c r="F261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -9220,8 +10064,11 @@
       <c r="E262">
         <v>26</v>
       </c>
-    </row>
-    <row r="263" spans="1:5">
+      <c r="F262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -9237,8 +10084,11 @@
       <c r="E263">
         <v>28</v>
       </c>
-    </row>
-    <row r="264" spans="1:5">
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -9251,8 +10101,11 @@
       <c r="E264">
         <v>43</v>
       </c>
-    </row>
-    <row r="265" spans="1:5">
+      <c r="F264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -9268,8 +10121,11 @@
       <c r="E265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5">
+      <c r="F265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>19</v>
       </c>
@@ -9285,8 +10141,11 @@
       <c r="E266">
         <v>16</v>
       </c>
-    </row>
-    <row r="267" spans="1:5">
+      <c r="F266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>50</v>
       </c>
@@ -9302,8 +10161,11 @@
       <c r="E267">
         <v>10</v>
       </c>
-    </row>
-    <row r="268" spans="1:5">
+      <c r="F267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -9319,8 +10181,11 @@
       <c r="E268">
         <v>20</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -9336,8 +10201,11 @@
       <c r="E269">
         <v>32</v>
       </c>
-    </row>
-    <row r="270" spans="1:5">
+      <c r="F269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -9350,8 +10218,11 @@
       <c r="E270">
         <v>24</v>
       </c>
-    </row>
-    <row r="271" spans="1:5">
+      <c r="F270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>13</v>
       </c>
@@ -9367,8 +10238,11 @@
       <c r="E271">
         <v>10</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="F271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>18</v>
       </c>
@@ -9384,8 +10258,11 @@
       <c r="E272">
         <v>24</v>
       </c>
-    </row>
-    <row r="273" spans="1:5">
+      <c r="F272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -9401,8 +10278,11 @@
       <c r="E273">
         <v>15</v>
       </c>
-    </row>
-    <row r="274" spans="1:5">
+      <c r="F273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -9415,8 +10295,11 @@
       <c r="E274">
         <v>29</v>
       </c>
-    </row>
-    <row r="275" spans="1:5">
+      <c r="F274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -9432,8 +10315,11 @@
       <c r="E275">
         <v>44</v>
       </c>
-    </row>
-    <row r="276" spans="1:5">
+      <c r="F275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>11</v>
       </c>
@@ -9449,8 +10335,11 @@
       <c r="E276">
         <v>29</v>
       </c>
-    </row>
-    <row r="277" spans="1:5">
+      <c r="F276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>24</v>
       </c>
@@ -9466,8 +10355,11 @@
       <c r="E277">
         <v>31</v>
       </c>
-    </row>
-    <row r="278" spans="1:5">
+      <c r="F277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -9483,8 +10375,11 @@
       <c r="E278">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:5">
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>43</v>
       </c>
@@ -9500,8 +10395,11 @@
       <c r="E279">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:5">
+      <c r="F279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>8</v>
       </c>
@@ -9517,8 +10415,11 @@
       <c r="E280">
         <v>35</v>
       </c>
-    </row>
-    <row r="281" spans="1:5">
+      <c r="F280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>52</v>
       </c>
@@ -9534,8 +10435,11 @@
       <c r="E281">
         <v>17</v>
       </c>
-    </row>
-    <row r="282" spans="1:5">
+      <c r="F281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -9551,8 +10455,11 @@
       <c r="E282">
         <v>47</v>
       </c>
-    </row>
-    <row r="283" spans="1:5">
+      <c r="F282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>18</v>
       </c>
@@ -9568,8 +10475,11 @@
       <c r="E283">
         <v>34</v>
       </c>
-    </row>
-    <row r="284" spans="1:5">
+      <c r="F283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>8</v>
       </c>
@@ -9585,8 +10495,11 @@
       <c r="E284">
         <v>42</v>
       </c>
-    </row>
-    <row r="285" spans="1:5">
+      <c r="F284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>11</v>
       </c>
@@ -9602,8 +10515,11 @@
       <c r="E285">
         <v>6</v>
       </c>
-    </row>
-    <row r="286" spans="1:5">
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>26</v>
       </c>
@@ -9619,8 +10535,11 @@
       <c r="E286">
         <v>34</v>
       </c>
-    </row>
-    <row r="287" spans="1:5">
+      <c r="F286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>18</v>
       </c>
@@ -9636,8 +10555,11 @@
       <c r="E287">
         <v>18</v>
       </c>
-    </row>
-    <row r="288" spans="1:5">
+      <c r="F287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>38</v>
       </c>
@@ -9653,8 +10575,11 @@
       <c r="E288">
         <v>27</v>
       </c>
-    </row>
-    <row r="289" spans="1:5">
+      <c r="F288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>31</v>
       </c>
@@ -9670,8 +10595,11 @@
       <c r="E289">
         <v>41</v>
       </c>
-    </row>
-    <row r="290" spans="1:5">
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>33</v>
       </c>
@@ -9687,8 +10615,11 @@
       <c r="E290">
         <v>25</v>
       </c>
-    </row>
-    <row r="291" spans="1:5">
+      <c r="F290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>8</v>
       </c>
@@ -9701,8 +10632,11 @@
       <c r="E291">
         <v>20</v>
       </c>
-    </row>
-    <row r="292" spans="1:5">
+      <c r="F291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>38</v>
       </c>
@@ -9718,8 +10652,11 @@
       <c r="E292">
         <v>27</v>
       </c>
-    </row>
-    <row r="293" spans="1:5">
+      <c r="F292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>53</v>
       </c>
@@ -9735,8 +10672,11 @@
       <c r="E293">
         <v>23</v>
       </c>
-    </row>
-    <row r="294" spans="1:5">
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>18</v>
       </c>
@@ -9752,8 +10692,11 @@
       <c r="E294">
         <v>12</v>
       </c>
-    </row>
-    <row r="295" spans="1:5">
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>14</v>
       </c>
@@ -9769,8 +10712,11 @@
       <c r="E295">
         <v>31</v>
       </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="F295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -9786,8 +10732,11 @@
       <c r="E296">
         <v>19</v>
       </c>
-    </row>
-    <row r="297" spans="1:5">
+      <c r="F296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>22</v>
       </c>
@@ -9803,8 +10752,11 @@
       <c r="E297">
         <v>17</v>
       </c>
-    </row>
-    <row r="298" spans="1:5">
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>11</v>
       </c>
@@ -9820,8 +10772,11 @@
       <c r="E298">
         <v>20</v>
       </c>
-    </row>
-    <row r="299" spans="1:5">
+      <c r="F298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -9837,8 +10792,11 @@
       <c r="E299">
         <v>30</v>
       </c>
-    </row>
-    <row r="300" spans="1:5">
+      <c r="F299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>54</v>
       </c>
@@ -9854,8 +10812,11 @@
       <c r="E300">
         <v>47</v>
       </c>
-    </row>
-    <row r="301" spans="1:5">
+      <c r="F300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -9870,6 +10831,9 @@
       </c>
       <c r="E301">
         <v>12</v>
+      </c>
+      <c r="F301">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9878,14 +10842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9905,7 +10871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -9921,8 +10887,11 @@
       <c r="E2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -9938,8 +10907,11 @@
       <c r="E3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -9955,8 +10927,11 @@
       <c r="E4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -9972,8 +10947,11 @@
       <c r="E5">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -9989,8 +10967,11 @@
       <c r="E6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -10006,8 +10987,11 @@
       <c r="E7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -10023,8 +11007,11 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -10040,8 +11027,11 @@
       <c r="E9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -10057,8 +11047,11 @@
       <c r="E10">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -10074,8 +11067,11 @@
       <c r="E11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -10091,8 +11087,11 @@
       <c r="E12">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -10108,8 +11107,11 @@
       <c r="E13">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -10125,8 +11127,11 @@
       <c r="E14">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -10142,8 +11147,11 @@
       <c r="E15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -10159,8 +11167,11 @@
       <c r="E16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -10176,8 +11187,11 @@
       <c r="E17">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>907</v>
       </c>
@@ -10190,8 +11204,11 @@
       <c r="E18">
         <v>49</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -10207,8 +11224,11 @@
       <c r="E19">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -10224,8 +11244,11 @@
       <c r="E20">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -10241,8 +11264,11 @@
       <c r="E21">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -10258,8 +11284,11 @@
       <c r="E22">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -10275,8 +11304,11 @@
       <c r="E23">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -10292,8 +11324,11 @@
       <c r="E24">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -10309,8 +11344,11 @@
       <c r="E25">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -10326,8 +11364,11 @@
       <c r="E26">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -10343,8 +11384,11 @@
       <c r="E27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -10360,8 +11404,11 @@
       <c r="E28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -10377,8 +11424,11 @@
       <c r="E29">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -10394,8 +11444,11 @@
       <c r="E30">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -10411,8 +11464,11 @@
       <c r="E31">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>908</v>
       </c>
@@ -10428,8 +11484,11 @@
       <c r="E32">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -10445,8 +11504,11 @@
       <c r="E33">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -10462,8 +11524,11 @@
       <c r="E34">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -10479,8 +11544,11 @@
       <c r="E35">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -10496,8 +11564,11 @@
       <c r="E36">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -10513,8 +11584,11 @@
       <c r="E37">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -10530,8 +11604,11 @@
       <c r="E38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -10547,8 +11624,11 @@
       <c r="E39">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -10564,8 +11644,11 @@
       <c r="E40">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -10581,8 +11664,11 @@
       <c r="E41">
         <v>38</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -10598,8 +11684,11 @@
       <c r="E42">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -10615,8 +11704,11 @@
       <c r="E43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>909</v>
       </c>
@@ -10632,8 +11724,11 @@
       <c r="E44">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -10649,8 +11744,11 @@
       <c r="E45">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -10666,8 +11764,11 @@
       <c r="E46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -10683,8 +11784,11 @@
       <c r="E47">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -10700,8 +11804,11 @@
       <c r="E48">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -10717,8 +11824,11 @@
       <c r="E49">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -10734,8 +11844,11 @@
       <c r="E50">
         <v>43</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -10751,8 +11864,11 @@
       <c r="E51">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -10768,8 +11884,11 @@
       <c r="E52">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -10785,8 +11904,11 @@
       <c r="E53">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -10802,8 +11924,11 @@
       <c r="E54">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -10819,8 +11944,11 @@
       <c r="E55">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -10836,8 +11964,11 @@
       <c r="E56">
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -10853,8 +11984,11 @@
       <c r="E57">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -10870,8 +12004,11 @@
       <c r="E58">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -10887,8 +12024,11 @@
       <c r="E59">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -10904,8 +12044,11 @@
       <c r="E60">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -10921,8 +12064,11 @@
       <c r="E61">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -10938,8 +12084,11 @@
       <c r="E62">
         <v>41</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -10955,8 +12104,11 @@
       <c r="E63">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -10972,8 +12124,11 @@
       <c r="E64">
         <v>27</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>31</v>
       </c>
@@ -10989,8 +12144,11 @@
       <c r="E65">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -11006,8 +12164,11 @@
       <c r="E66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -11023,8 +12184,11 @@
       <c r="E67">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -11040,8 +12204,11 @@
       <c r="E68">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -11057,8 +12224,11 @@
       <c r="E69">
         <v>40</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -11074,8 +12244,11 @@
       <c r="E70">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -11091,8 +12264,11 @@
       <c r="E71">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -11108,8 +12284,11 @@
       <c r="E72">
         <v>30</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>15</v>
       </c>
@@ -11125,8 +12304,11 @@
       <c r="E73">
         <v>49</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -11142,8 +12324,11 @@
       <c r="E74">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -11159,8 +12344,11 @@
       <c r="E75">
         <v>39</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -11176,8 +12364,11 @@
       <c r="E76">
         <v>21</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -11193,8 +12384,11 @@
       <c r="E77">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -11210,8 +12404,11 @@
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -11227,8 +12424,11 @@
       <c r="E79">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -11244,8 +12444,11 @@
       <c r="E80">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -11261,8 +12464,11 @@
       <c r="E81">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -11278,8 +12484,11 @@
       <c r="E82">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -11295,8 +12504,11 @@
       <c r="E83">
         <v>34</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -11312,8 +12524,11 @@
       <c r="E84">
         <v>28</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -11329,8 +12544,11 @@
       <c r="E85">
         <v>33</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -11346,8 +12564,11 @@
       <c r="E86">
         <v>43</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -11363,8 +12584,11 @@
       <c r="E87">
         <v>12</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -11380,8 +12604,11 @@
       <c r="E88">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -11397,8 +12624,11 @@
       <c r="E89">
         <v>37</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -11414,8 +12644,11 @@
       <c r="E90">
         <v>30</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -11431,8 +12664,11 @@
       <c r="E91">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -11448,8 +12684,11 @@
       <c r="E92">
         <v>23</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -11465,8 +12704,11 @@
       <c r="E93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -11482,8 +12724,11 @@
       <c r="E94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -11499,8 +12744,11 @@
       <c r="E95">
         <v>34</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -11516,8 +12764,11 @@
       <c r="E96">
         <v>18</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -11530,8 +12781,11 @@
       <c r="E97">
         <v>43</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>910</v>
       </c>
@@ -11547,8 +12801,11 @@
       <c r="E98">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -11564,8 +12821,11 @@
       <c r="E99">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -11578,8 +12838,11 @@
       <c r="E100">
         <v>50</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -11595,8 +12858,11 @@
       <c r="E101">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -11612,8 +12878,11 @@
       <c r="E102">
         <v>39</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -11629,8 +12898,11 @@
       <c r="E103">
         <v>36</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -11646,8 +12918,11 @@
       <c r="E104">
         <v>47</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>11</v>
       </c>
@@ -11663,8 +12938,11 @@
       <c r="E105">
         <v>15</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -11680,8 +12958,11 @@
       <c r="E106">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>911</v>
       </c>
@@ -11697,8 +12978,11 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>8</v>
       </c>
@@ -11714,8 +12998,11 @@
       <c r="E108">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -11731,8 +13018,11 @@
       <c r="E109">
         <v>35</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -11748,8 +13038,11 @@
       <c r="E110">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>8</v>
       </c>
@@ -11765,8 +13058,11 @@
       <c r="E111">
         <v>43</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -11782,8 +13078,11 @@
       <c r="E112">
         <v>38</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -11799,8 +13098,11 @@
       <c r="E113">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -11816,8 +13118,11 @@
       <c r="E114">
         <v>31</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -11833,8 +13138,11 @@
       <c r="E115">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -11850,8 +13158,11 @@
       <c r="E116">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -11867,8 +13178,11 @@
       <c r="E117">
         <v>43</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -11884,8 +13198,11 @@
       <c r="E118">
         <v>35</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -11898,8 +13215,11 @@
       <c r="E119">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -11915,8 +13235,11 @@
       <c r="E120">
         <v>32</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -11932,8 +13255,11 @@
       <c r="E121">
         <v>35</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>912</v>
       </c>
@@ -11949,8 +13275,11 @@
       <c r="E122">
         <v>21</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -11966,8 +13295,11 @@
       <c r="E123">
         <v>36</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>8</v>
       </c>
@@ -11983,8 +13315,11 @@
       <c r="E124">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>18</v>
       </c>
@@ -12000,8 +13335,11 @@
       <c r="E125">
         <v>12</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>913</v>
       </c>
@@ -12017,8 +13355,11 @@
       <c r="E126">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -12034,8 +13375,11 @@
       <c r="E127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -12051,8 +13395,11 @@
       <c r="E128">
         <v>31</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -12065,8 +13412,11 @@
       <c r="E129">
         <v>47</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -12082,8 +13432,11 @@
       <c r="E130">
         <v>46</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -12099,8 +13452,11 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -12116,8 +13472,11 @@
       <c r="E132">
         <v>28</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>914</v>
       </c>
@@ -12133,8 +13492,11 @@
       <c r="E133">
         <v>31</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -12150,8 +13512,11 @@
       <c r="E134">
         <v>32</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -12167,8 +13532,11 @@
       <c r="E135">
         <v>25</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>48</v>
       </c>
@@ -12185,7 +13553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -12201,8 +13569,11 @@
       <c r="E137">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -12218,8 +13589,11 @@
       <c r="E138">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -12232,8 +13606,11 @@
       <c r="E139">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -12249,8 +13626,11 @@
       <c r="E140">
         <v>48</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -12266,8 +13646,11 @@
       <c r="E141">
         <v>13</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -12283,8 +13666,11 @@
       <c r="E142">
         <v>28</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -12300,8 +13686,11 @@
       <c r="E143">
         <v>6</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -12317,8 +13706,11 @@
       <c r="E144">
         <v>41</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -12334,8 +13726,11 @@
       <c r="E145">
         <v>24</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -12351,8 +13746,11 @@
       <c r="E146">
         <v>48</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>24</v>
       </c>
@@ -12368,8 +13766,11 @@
       <c r="E147">
         <v>33</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>18</v>
       </c>
@@ -12385,8 +13786,11 @@
       <c r="E148">
         <v>6</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>46</v>
       </c>
@@ -12402,8 +13806,11 @@
       <c r="E149">
         <v>49</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -12419,8 +13826,11 @@
       <c r="E150">
         <v>45</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -12436,8 +13846,11 @@
       <c r="E151">
         <v>39</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>22</v>
       </c>
@@ -12453,8 +13866,11 @@
       <c r="E152">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -12470,8 +13886,11 @@
       <c r="E153">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>915</v>
       </c>
@@ -12487,8 +13906,11 @@
       <c r="E154">
         <v>25</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -12504,8 +13926,11 @@
       <c r="E155">
         <v>13</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -12521,8 +13946,11 @@
       <c r="E156">
         <v>36</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -12538,8 +13966,11 @@
       <c r="E157">
         <v>45</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -12555,8 +13986,11 @@
       <c r="E158">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>23</v>
       </c>
@@ -12572,8 +14006,11 @@
       <c r="E159">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -12589,8 +14026,11 @@
       <c r="E160">
         <v>41</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -12606,8 +14046,11 @@
       <c r="E161">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -12623,8 +14066,11 @@
       <c r="E162">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -12640,8 +14086,11 @@
       <c r="E163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -12657,8 +14106,11 @@
       <c r="E164">
         <v>46</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -12674,8 +14126,11 @@
       <c r="E165">
         <v>18</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -12691,8 +14146,11 @@
       <c r="E166">
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -12708,8 +14166,11 @@
       <c r="E167">
         <v>40</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -12725,8 +14186,11 @@
       <c r="E168">
         <v>7</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>18</v>
       </c>
@@ -12742,8 +14206,11 @@
       <c r="E169">
         <v>13</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -12759,8 +14226,11 @@
       <c r="E170">
         <v>31</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -12776,8 +14246,11 @@
       <c r="E171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -12793,8 +14266,11 @@
       <c r="E172">
         <v>25</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>18</v>
       </c>
@@ -12810,8 +14286,11 @@
       <c r="E173">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -12827,8 +14306,11 @@
       <c r="E174">
         <v>40</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -12844,8 +14326,11 @@
       <c r="E175">
         <v>21</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -12861,8 +14346,11 @@
       <c r="E176">
         <v>39</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -12878,8 +14366,11 @@
       <c r="E177">
         <v>31</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>24</v>
       </c>
@@ -12895,8 +14386,11 @@
       <c r="E178">
         <v>45</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -12912,8 +14406,11 @@
       <c r="E179">
         <v>41</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>11</v>
       </c>
@@ -12929,8 +14426,11 @@
       <c r="E180">
         <v>32</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -12946,8 +14446,11 @@
       <c r="E181">
         <v>28</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -12963,8 +14466,11 @@
       <c r="E182">
         <v>27</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -12980,8 +14486,11 @@
       <c r="E183">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -12997,8 +14506,11 @@
       <c r="E184">
         <v>10</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>18</v>
       </c>
@@ -13014,8 +14526,11 @@
       <c r="E185">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -13031,8 +14546,11 @@
       <c r="E186">
         <v>33</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -13048,8 +14566,11 @@
       <c r="E187">
         <v>21</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -13065,8 +14586,11 @@
       <c r="E188">
         <v>49</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -13082,8 +14606,11 @@
       <c r="E189">
         <v>5</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -13099,8 +14626,11 @@
       <c r="E190">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -13116,8 +14646,11 @@
       <c r="E191">
         <v>37</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -13133,8 +14666,11 @@
       <c r="E192">
         <v>18</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -13150,8 +14686,11 @@
       <c r="E193">
         <v>13</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>39</v>
       </c>
@@ -13167,8 +14706,11 @@
       <c r="E194">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>15</v>
       </c>
@@ -13184,8 +14726,11 @@
       <c r="E195">
         <v>14</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -13201,8 +14746,11 @@
       <c r="E196">
         <v>9</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>40</v>
       </c>
@@ -13218,8 +14766,11 @@
       <c r="E197">
         <v>12</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>18</v>
       </c>
@@ -13235,8 +14786,11 @@
       <c r="E198">
         <v>23</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>15</v>
       </c>
@@ -13252,8 +14806,11 @@
       <c r="E199">
         <v>33</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>35</v>
       </c>
@@ -13269,8 +14826,11 @@
       <c r="E200">
         <v>40</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>18</v>
       </c>
@@ -13285,6 +14845,9 @@
       </c>
       <c r="E201">
         <v>49</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theus\Downloads\PROJETO CDADOS\22-1a-cd-p1-grupo_matheussr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD35E7B-5BD3-4427-B534-2681905F6D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5641E5-4964-4C7F-BB76-69D0406F04A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -4870,7 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A280" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -10845,8 +10845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13552,6 +13552,9 @@
       <c r="E136">
         <v>30</v>
       </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
